--- a/Documentation/final/Module & Functionality.xlsx
+++ b/Documentation/final/Module & Functionality.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\project with nagesh and karishma\Project Gladiator\Ajay\final\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03236C1-5C39-4859-92E9-A532926DDD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Module</t>
   </si>
@@ -45,27 +45,18 @@
     <t>User Verification</t>
   </si>
   <si>
-    <t>USER(read)</t>
-  </si>
-  <si>
     <t>ADMIN(read)</t>
   </si>
   <si>
     <t>SingUp</t>
   </si>
   <si>
-    <t>ACCOUNT(write)</t>
-  </si>
-  <si>
     <t>USER</t>
   </si>
   <si>
     <t>UserAccountDetails</t>
   </si>
   <si>
-    <t>USER &amp; ACCOUNT(read)</t>
-  </si>
-  <si>
     <t>UserAccountSummary</t>
   </si>
   <si>
@@ -93,15 +84,6 @@
     <t>BENEFICIARY(write)</t>
   </si>
   <si>
-    <t>USER(write) &amp; ACCOUNT(write)</t>
-  </si>
-  <si>
-    <t>Rejectnewuser</t>
-  </si>
-  <si>
-    <t>USER(read) &amp; Account(read)</t>
-  </si>
-  <si>
     <t>User login</t>
   </si>
   <si>
@@ -111,12 +93,6 @@
     <t>Admin login</t>
   </si>
   <si>
-    <t>NewAccountOPEN</t>
-  </si>
-  <si>
-    <t>RegisterForNetbanking</t>
-  </si>
-  <si>
     <t>Includenewbeneficiary</t>
   </si>
   <si>
@@ -130,13 +106,28 @@
   </si>
   <si>
     <t>Forgot password/Reset password</t>
+  </si>
+  <si>
+    <t>USER_REGISTRATION(read)</t>
+  </si>
+  <si>
+    <t>UserRegistration</t>
+  </si>
+  <si>
+    <t>USER_Registration(write)</t>
+  </si>
+  <si>
+    <t>USER_REGISTRATION &amp; ACCOUNT(read)</t>
+  </si>
+  <si>
+    <t>USER_registration(write) &amp; ACCOUNT(write)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,12 +185,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -207,6 +192,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,71 +343,68 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -494,7 +482,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -546,7 +534,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -740,21 +728,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.77734375" customWidth="1"/>
     <col min="3" max="3" width="47.33203125" customWidth="1"/>
@@ -762,7 +750,7 @@
     <col min="5" max="5" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="19.8">
+    <row r="2" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -777,246 +765,242 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="31">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="30">
         <v>1</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="34" t="s">
-        <v>8</v>
+      <c r="B9" s="33" t="s">
+        <v>7</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
-      <c r="B11" s="36"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="24"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="43">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="42">
         <v>3</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="44"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" s="5" customFormat="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="D15" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" s="6" customFormat="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="47"/>
+    <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="44"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:5" s="7" customFormat="1">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
-      <c r="B17" s="47"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="12"/>
       <c r="D17" s="15"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="40">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="39">
         <v>4</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="41"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="41"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="42"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="16" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="19"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="28">
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="23">
         <v>5</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="27"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
